--- a/Files/excelfile.xlsx
+++ b/Files/excelfile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3610" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GLOBALS" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,6 @@
     <t>DESTINATION</t>
   </si>
   <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\file1.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\file2.docx</t>
-  </si>
-  <si>
     <t>file2</t>
   </si>
   <si>
@@ -89,27 +83,9 @@
     <t>This is a paragraph</t>
   </si>
   <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\Images\IMG1.jpg</t>
-  </si>
-  <si>
     <t>file3</t>
   </si>
   <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\file3.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\Result.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\Result1.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\Result2.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\Result3.docx</t>
-  </si>
-  <si>
     <t>image1</t>
   </si>
   <si>
@@ -119,13 +95,37 @@
     <t>image1_height</t>
   </si>
   <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\Images\IMG2.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\Images\IMG3.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Ravi\pythonDocx\pythonDocx\Files\Images\IMG4.jpg</t>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Images\IMG1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Images\IMG2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Images\IMG3.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Images\IMG4.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Result.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Result1.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Result2.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Result3.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\file1.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\file2.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\file3.docx</t>
   </si>
 </sst>
 </file>
@@ -483,14 +483,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -498,18 +498,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -518,12 +518,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -532,12 +532,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -546,12 +546,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -573,20 +573,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -594,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
@@ -605,10 +605,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>3</v>
       </c>
@@ -616,10 +616,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>4</v>
       </c>
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -639,35 +639,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -676,12 +676,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>2.5</v>
@@ -690,12 +690,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -704,12 +704,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -727,85 +727,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Files/excelfile.xlsx
+++ b/Files/excelfile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GLOBALS" sheetId="1" r:id="rId1"/>
@@ -95,37 +95,37 @@
     <t>image1_height</t>
   </si>
   <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Images\IMG1.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Images\IMG2.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Images\IMG3.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Images\IMG4.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Result.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Result1.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Result2.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\Result3.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\file1.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\file2.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\Ravi Sharma\Desktop\Fiverr\pythonDocx\pythonDocx\Files\file3.docx</t>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\file1.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\file2.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\file3.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Result.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Result1.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Result2.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Result3.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Images\IMG1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Images\IMG2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Images\IMG3.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Images\IMG4.jpg</t>
   </si>
 </sst>
 </file>
@@ -483,14 +483,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -504,12 +504,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -518,12 +518,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -532,12 +532,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -546,12 +546,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -573,9 +573,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -586,7 +586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>1</v>
       </c>
@@ -597,7 +597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C5">
         <v>2</v>
       </c>
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>3</v>
       </c>
@@ -619,7 +619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>4</v>
       </c>
@@ -639,16 +639,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -662,12 +662,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -676,12 +676,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2.5</v>
@@ -690,12 +690,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -704,12 +704,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -727,18 +727,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -752,60 +752,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Files/excelfile.xlsx
+++ b/Files/excelfile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
   </bookViews>
   <sheets>
     <sheet name="GLOBALS" sheetId="1" r:id="rId1"/>
@@ -33,99 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>ITERATOR</t>
-  </si>
-  <si>
-    <t>foo1</t>
-  </si>
-  <si>
-    <t>foo2</t>
-  </si>
-  <si>
-    <t>foo3</t>
-  </si>
-  <si>
-    <t>This is a sentence!</t>
   </si>
   <si>
     <t>DESTINATION</t>
   </si>
   <si>
-    <t>file2</t>
-  </si>
-  <si>
     <t>file1</t>
-  </si>
-  <si>
-    <t>condition1</t>
-  </si>
-  <si>
-    <t>condition2</t>
-  </si>
-  <si>
-    <t>text1</t>
-  </si>
-  <si>
-    <t>text2</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Bar1</t>
-  </si>
-  <si>
-    <t>Bar 2</t>
-  </si>
-  <si>
-    <t>This is a paragraph</t>
-  </si>
-  <si>
-    <t>file3</t>
-  </si>
-  <si>
-    <t>image1</t>
-  </si>
-  <si>
-    <t>image1_width</t>
-  </si>
-  <si>
-    <t>image1_height</t>
   </si>
   <si>
     <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\file1.docx</t>
   </si>
   <si>
-    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\file2.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\file3.docx</t>
-  </si>
-  <si>
     <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Result.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Result1.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Result2.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Result3.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Images\IMG1.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Images\IMG2.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Images\IMG3.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Images\IMG4.jpg</t>
   </si>
 </sst>
 </file>
@@ -477,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,74 +412,20 @@
     <col min="3" max="3" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -567,67 +435,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E7"/>
+  <dimension ref="C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -637,10 +455,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E7"/>
+  <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,74 +466,14 @@
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>2.5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -725,10 +483,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E7"/>
+  <dimension ref="B3:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,74 +496,20 @@
     <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6">
         <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Files/excelfile.xlsx
+++ b/Files/excelfile.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>ITERATOR</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Result.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition1 </t>
+  </si>
+  <si>
+    <t>C:\Users\1000254169\Desktop\Work\python-docx\pythonDocx\Files\Result1.docx</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,20 +418,37 @@
     <col min="3" max="3" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
